--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Agrp-Mc5r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Agrp-Mc5r.xlsx
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3463370000000001</v>
+        <v>0.052073</v>
       </c>
       <c r="H2">
-        <v>1.039011</v>
+        <v>0.156219</v>
       </c>
       <c r="I2">
-        <v>0.2589001916688345</v>
+        <v>0.03816600682360385</v>
       </c>
       <c r="J2">
-        <v>0.2589001916688345</v>
+        <v>0.03816600682360385</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2202326666666667</v>
+        <v>0.6692483333333333</v>
       </c>
       <c r="N2">
-        <v>0.660698</v>
+        <v>2.007745</v>
       </c>
       <c r="O2">
-        <v>0.06579718908617814</v>
+        <v>0.162783276239793</v>
       </c>
       <c r="P2">
-        <v>0.06579718908617814</v>
+        <v>0.162783276239793</v>
       </c>
       <c r="Q2">
-        <v>0.07627472107533334</v>
+        <v>0.03484976846166667</v>
       </c>
       <c r="R2">
-        <v>0.6864724896780001</v>
+        <v>0.313647916155</v>
       </c>
       <c r="S2">
-        <v>0.01703490486568207</v>
+        <v>0.006212787631736532</v>
       </c>
       <c r="T2">
-        <v>0.01703490486568207</v>
+        <v>0.006212787631736532</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3463370000000001</v>
+        <v>0.052073</v>
       </c>
       <c r="H3">
-        <v>1.039011</v>
+        <v>0.156219</v>
       </c>
       <c r="I3">
-        <v>0.2589001916688345</v>
+        <v>0.03816600682360385</v>
       </c>
       <c r="J3">
-        <v>0.2589001916688345</v>
+        <v>0.03816600682360385</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.602015</v>
       </c>
       <c r="O3">
-        <v>0.7570648290004852</v>
+        <v>0.6163536244513372</v>
       </c>
       <c r="P3">
-        <v>0.7570648290004851</v>
+        <v>0.6163536244513373</v>
       </c>
       <c r="Q3">
-        <v>0.8776196896850001</v>
+        <v>0.131953242365</v>
       </c>
       <c r="R3">
-        <v>7.898577207165001</v>
+        <v>1.187579181285</v>
       </c>
       <c r="S3">
-        <v>0.1960042293339591</v>
+        <v>0.02352375663656271</v>
       </c>
       <c r="T3">
-        <v>0.1960042293339591</v>
+        <v>0.02352375663656271</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3463370000000001</v>
+        <v>0.052073</v>
       </c>
       <c r="H4">
-        <v>1.039011</v>
+        <v>0.156219</v>
       </c>
       <c r="I4">
-        <v>0.2589001916688345</v>
+        <v>0.03816600682360385</v>
       </c>
       <c r="J4">
-        <v>0.2589001916688345</v>
+        <v>0.03816600682360385</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.394196</v>
+        <v>0.885104</v>
       </c>
       <c r="N4">
-        <v>1.182588</v>
+        <v>2.655312</v>
       </c>
       <c r="O4">
-        <v>0.1177708518067941</v>
+        <v>0.2152864964419472</v>
       </c>
       <c r="P4">
-        <v>0.1177708518067941</v>
+        <v>0.2152864964419472</v>
       </c>
       <c r="Q4">
-        <v>0.136524660052</v>
+        <v>0.046090020592</v>
       </c>
       <c r="R4">
-        <v>1.228721940468</v>
+        <v>0.414810185328</v>
       </c>
       <c r="S4">
-        <v>0.0304908961057809</v>
+        <v>0.008216625892233124</v>
       </c>
       <c r="T4">
-        <v>0.0304908961057809</v>
+        <v>0.008216625892233124</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3463370000000001</v>
+        <v>0.052073</v>
       </c>
       <c r="H5">
-        <v>1.039011</v>
+        <v>0.156219</v>
       </c>
       <c r="I5">
-        <v>0.2589001916688345</v>
+        <v>0.03816600682360385</v>
       </c>
       <c r="J5">
-        <v>0.2589001916688345</v>
+        <v>0.03816600682360385</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1987103333333333</v>
+        <v>0.022927</v>
       </c>
       <c r="N5">
-        <v>0.596131</v>
+        <v>0.06878099999999999</v>
       </c>
       <c r="O5">
-        <v>0.05936713010654257</v>
+        <v>0.005576602866922444</v>
       </c>
       <c r="P5">
-        <v>0.05936713010654257</v>
+        <v>0.005576602866922445</v>
       </c>
       <c r="Q5">
-        <v>0.06882074071566667</v>
+        <v>0.001193877671</v>
       </c>
       <c r="R5">
-        <v>0.619386666441</v>
+        <v>0.010744899039</v>
       </c>
       <c r="S5">
-        <v>0.01537016136341251</v>
+        <v>0.0002128366630714908</v>
       </c>
       <c r="T5">
-        <v>0.01537016136341251</v>
+        <v>0.0002128366630714909</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>2.127488</v>
       </c>
       <c r="I6">
-        <v>0.5301262941134843</v>
+        <v>0.5197685398391702</v>
       </c>
       <c r="J6">
-        <v>0.5301262941134843</v>
+        <v>0.5197685398391702</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2202326666666667</v>
+        <v>0.6692483333333333</v>
       </c>
       <c r="N6">
-        <v>0.660698</v>
+        <v>2.007745</v>
       </c>
       <c r="O6">
-        <v>0.06579718908617814</v>
+        <v>0.162783276239793</v>
       </c>
       <c r="P6">
-        <v>0.06579718908617814</v>
+        <v>0.162783276239793</v>
       </c>
       <c r="Q6">
-        <v>0.1561807851804445</v>
+        <v>0.4746059327288889</v>
       </c>
       <c r="R6">
-        <v>1.405627066624</v>
+        <v>4.27145339456</v>
       </c>
       <c r="S6">
-        <v>0.03488082001333982</v>
+        <v>0.0846096258013935</v>
       </c>
       <c r="T6">
-        <v>0.03488082001333982</v>
+        <v>0.0846096258013935</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2.127488</v>
       </c>
       <c r="I7">
-        <v>0.5301262941134843</v>
+        <v>0.5197685398391702</v>
       </c>
       <c r="J7">
-        <v>0.5301262941134843</v>
+        <v>0.5197685398391702</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>7.602015</v>
       </c>
       <c r="O7">
-        <v>0.7570648290004852</v>
+        <v>0.6163536244513372</v>
       </c>
       <c r="P7">
-        <v>0.7570648290004851</v>
+        <v>0.6163536244513373</v>
       </c>
       <c r="Q7">
         <v>1.797021743146667</v>
@@ -883,10 +883,10 @@
         <v>16.17319568832</v>
       </c>
       <c r="S7">
-        <v>0.4013399722016859</v>
+        <v>0.3203612234056518</v>
       </c>
       <c r="T7">
-        <v>0.4013399722016859</v>
+        <v>0.3203612234056519</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>2.127488</v>
       </c>
       <c r="I8">
-        <v>0.5301262941134843</v>
+        <v>0.5197685398391702</v>
       </c>
       <c r="J8">
-        <v>0.5301262941134843</v>
+        <v>0.5197685398391702</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.394196</v>
+        <v>0.885104</v>
       </c>
       <c r="N8">
-        <v>1.182588</v>
+        <v>2.655312</v>
       </c>
       <c r="O8">
-        <v>0.1177708518067941</v>
+        <v>0.2152864964419472</v>
       </c>
       <c r="P8">
-        <v>0.1177708518067941</v>
+        <v>0.2152864964419472</v>
       </c>
       <c r="Q8">
-        <v>0.2795490865493334</v>
+        <v>0.6276827129173334</v>
       </c>
       <c r="R8">
-        <v>2.515941778944</v>
+        <v>5.649144416256</v>
       </c>
       <c r="S8">
-        <v>0.0624334252229241</v>
+        <v>0.1118991479027216</v>
       </c>
       <c r="T8">
-        <v>0.0624334252229241</v>
+        <v>0.1118991479027216</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>2.127488</v>
       </c>
       <c r="I9">
-        <v>0.5301262941134843</v>
+        <v>0.5197685398391702</v>
       </c>
       <c r="J9">
-        <v>0.5301262941134843</v>
+        <v>0.5197685398391702</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1987103333333333</v>
+        <v>0.022927</v>
       </c>
       <c r="N9">
-        <v>0.596131</v>
+        <v>0.06878099999999999</v>
       </c>
       <c r="O9">
-        <v>0.05936713010654257</v>
+        <v>0.005576602866922444</v>
       </c>
       <c r="P9">
-        <v>0.05936713010654257</v>
+        <v>0.005576602866922445</v>
       </c>
       <c r="Q9">
-        <v>0.1409179498808889</v>
+        <v>0.01625897245866667</v>
       </c>
       <c r="R9">
-        <v>1.268261548928</v>
+        <v>0.146330752128</v>
       </c>
       <c r="S9">
-        <v>0.03147207667553448</v>
+        <v>0.002898542729403209</v>
       </c>
       <c r="T9">
-        <v>0.03147207667553448</v>
+        <v>0.002898542729403209</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.05636633333333333</v>
+        <v>0.299804</v>
       </c>
       <c r="H10">
-        <v>0.169099</v>
+        <v>0.8994119999999999</v>
       </c>
       <c r="I10">
-        <v>0.04213599616462987</v>
+        <v>0.2197361686429383</v>
       </c>
       <c r="J10">
-        <v>0.04213599616462987</v>
+        <v>0.2197361686429384</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2202326666666667</v>
+        <v>0.6692483333333333</v>
       </c>
       <c r="N10">
-        <v>0.660698</v>
+        <v>2.007745</v>
       </c>
       <c r="O10">
-        <v>0.06579718908617814</v>
+        <v>0.162783276239793</v>
       </c>
       <c r="P10">
-        <v>0.06579718908617814</v>
+        <v>0.162783276239793</v>
       </c>
       <c r="Q10">
-        <v>0.01241370790022222</v>
+        <v>0.2006433273266666</v>
       </c>
       <c r="R10">
-        <v>0.111723371102</v>
+        <v>1.80578994594</v>
       </c>
       <c r="S10">
-        <v>0.002772430106978628</v>
+        <v>0.03576937344007718</v>
       </c>
       <c r="T10">
-        <v>0.002772430106978629</v>
+        <v>0.03576937344007718</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.05636633333333333</v>
+        <v>0.299804</v>
       </c>
       <c r="H11">
-        <v>0.169099</v>
+        <v>0.8994119999999999</v>
       </c>
       <c r="I11">
-        <v>0.04213599616462987</v>
+        <v>0.2197361686429383</v>
       </c>
       <c r="J11">
-        <v>0.04213599616462987</v>
+        <v>0.2197361686429384</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>7.602015</v>
       </c>
       <c r="O11">
-        <v>0.7570648290004852</v>
+        <v>0.6163536244513372</v>
       </c>
       <c r="P11">
-        <v>0.7570648290004851</v>
+        <v>0.6163536244513373</v>
       </c>
       <c r="Q11">
-        <v>0.1428325704983333</v>
+        <v>0.75970483502</v>
       </c>
       <c r="R11">
-        <v>1.285493134485</v>
+        <v>6.837343515179999</v>
       </c>
       <c r="S11">
-        <v>0.03189968073114061</v>
+        <v>0.1354351839661253</v>
       </c>
       <c r="T11">
-        <v>0.03189968073114061</v>
+        <v>0.1354351839661254</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.05636633333333333</v>
+        <v>0.299804</v>
       </c>
       <c r="H12">
-        <v>0.169099</v>
+        <v>0.8994119999999999</v>
       </c>
       <c r="I12">
-        <v>0.04213599616462987</v>
+        <v>0.2197361686429383</v>
       </c>
       <c r="J12">
-        <v>0.04213599616462987</v>
+        <v>0.2197361686429384</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.394196</v>
+        <v>0.885104</v>
       </c>
       <c r="N12">
-        <v>1.182588</v>
+        <v>2.655312</v>
       </c>
       <c r="O12">
-        <v>0.1177708518067941</v>
+        <v>0.2152864964419472</v>
       </c>
       <c r="P12">
-        <v>0.1177708518067941</v>
+        <v>0.2152864964419472</v>
       </c>
       <c r="Q12">
-        <v>0.02221938313466667</v>
+        <v>0.265357719616</v>
       </c>
       <c r="R12">
-        <v>0.199974448212</v>
+        <v>2.388219476544</v>
       </c>
       <c r="S12">
-        <v>0.004962392160036268</v>
+        <v>0.04730622988871505</v>
       </c>
       <c r="T12">
-        <v>0.004962392160036268</v>
+        <v>0.04730622988871507</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.299804</v>
+      </c>
+      <c r="H13">
+        <v>0.8994119999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.2197361686429383</v>
+      </c>
+      <c r="J13">
+        <v>0.2197361686429384</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G13">
-        <v>0.05636633333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.169099</v>
-      </c>
-      <c r="I13">
-        <v>0.04213599616462987</v>
-      </c>
-      <c r="J13">
-        <v>0.04213599616462987</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M13">
-        <v>0.1987103333333333</v>
+        <v>0.022927</v>
       </c>
       <c r="N13">
-        <v>0.596131</v>
+        <v>0.06878099999999999</v>
       </c>
       <c r="O13">
-        <v>0.05936713010654257</v>
+        <v>0.005576602866922444</v>
       </c>
       <c r="P13">
-        <v>0.05936713010654257</v>
+        <v>0.005576602866922445</v>
       </c>
       <c r="Q13">
-        <v>0.01120057288544444</v>
+        <v>0.006873606307999999</v>
       </c>
       <c r="R13">
-        <v>0.100805155969</v>
+        <v>0.06186245677199999</v>
       </c>
       <c r="S13">
-        <v>0.00250149316647436</v>
+        <v>0.001225381348020764</v>
       </c>
       <c r="T13">
-        <v>0.00250149316647436</v>
+        <v>0.001225381348020764</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.225858</v>
+        <v>0.303342</v>
       </c>
       <c r="H14">
-        <v>0.677574</v>
+        <v>0.910026</v>
       </c>
       <c r="I14">
-        <v>0.1688375180530513</v>
+        <v>0.2223292846942876</v>
       </c>
       <c r="J14">
-        <v>0.1688375180530513</v>
+        <v>0.2223292846942876</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2202326666666667</v>
+        <v>0.6692483333333333</v>
       </c>
       <c r="N14">
-        <v>0.660698</v>
+        <v>2.007745</v>
       </c>
       <c r="O14">
-        <v>0.06579718908617814</v>
+        <v>0.162783276239793</v>
       </c>
       <c r="P14">
-        <v>0.06579718908617814</v>
+        <v>0.162783276239793</v>
       </c>
       <c r="Q14">
-        <v>0.049741309628</v>
+        <v>0.20301112793</v>
       </c>
       <c r="R14">
-        <v>0.447671786652</v>
+        <v>1.82710015137</v>
       </c>
       <c r="S14">
-        <v>0.01110903410017763</v>
+        <v>0.03619148936658581</v>
       </c>
       <c r="T14">
-        <v>0.01110903410017763</v>
+        <v>0.03619148936658581</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.225858</v>
+        <v>0.303342</v>
       </c>
       <c r="H15">
-        <v>0.677574</v>
+        <v>0.910026</v>
       </c>
       <c r="I15">
-        <v>0.1688375180530513</v>
+        <v>0.2223292846942876</v>
       </c>
       <c r="J15">
-        <v>0.1688375180530513</v>
+        <v>0.2223292846942876</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>7.602015</v>
       </c>
       <c r="O15">
-        <v>0.7570648290004852</v>
+        <v>0.6163536244513372</v>
       </c>
       <c r="P15">
-        <v>0.7570648290004851</v>
+        <v>0.6163536244513373</v>
       </c>
       <c r="Q15">
-        <v>0.57232530129</v>
+        <v>0.7686701447100001</v>
       </c>
       <c r="R15">
-        <v>5.15092771161</v>
+        <v>6.91803130239</v>
       </c>
       <c r="S15">
-        <v>0.1278209467336996</v>
+        <v>0.1370334604429974</v>
       </c>
       <c r="T15">
-        <v>0.1278209467336996</v>
+        <v>0.1370334604429974</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.225858</v>
+        <v>0.303342</v>
       </c>
       <c r="H16">
-        <v>0.677574</v>
+        <v>0.910026</v>
       </c>
       <c r="I16">
-        <v>0.1688375180530513</v>
+        <v>0.2223292846942876</v>
       </c>
       <c r="J16">
-        <v>0.1688375180530513</v>
+        <v>0.2223292846942876</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.394196</v>
+        <v>0.885104</v>
       </c>
       <c r="N16">
-        <v>1.182588</v>
+        <v>2.655312</v>
       </c>
       <c r="O16">
-        <v>0.1177708518067941</v>
+        <v>0.2152864964419472</v>
       </c>
       <c r="P16">
-        <v>0.1177708518067941</v>
+        <v>0.2152864964419472</v>
       </c>
       <c r="Q16">
-        <v>0.089032320168</v>
+        <v>0.268489217568</v>
       </c>
       <c r="R16">
-        <v>0.801290881512</v>
+        <v>2.416402958112</v>
       </c>
       <c r="S16">
-        <v>0.01988413831805282</v>
+        <v>0.04786449275827741</v>
       </c>
       <c r="T16">
-        <v>0.01988413831805283</v>
+        <v>0.04786449275827743</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.303342</v>
+      </c>
+      <c r="H17">
+        <v>0.910026</v>
+      </c>
+      <c r="I17">
+        <v>0.2223292846942876</v>
+      </c>
+      <c r="J17">
+        <v>0.2223292846942876</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G17">
-        <v>0.225858</v>
-      </c>
-      <c r="H17">
-        <v>0.677574</v>
-      </c>
-      <c r="I17">
-        <v>0.1688375180530513</v>
-      </c>
-      <c r="J17">
-        <v>0.1688375180530513</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M17">
-        <v>0.1987103333333333</v>
+        <v>0.022927</v>
       </c>
       <c r="N17">
-        <v>0.596131</v>
+        <v>0.06878099999999999</v>
       </c>
       <c r="O17">
-        <v>0.05936713010654257</v>
+        <v>0.005576602866922444</v>
       </c>
       <c r="P17">
-        <v>0.05936713010654257</v>
+        <v>0.005576602866922445</v>
       </c>
       <c r="Q17">
-        <v>0.044880318466</v>
+        <v>0.006954722034</v>
       </c>
       <c r="R17">
-        <v>0.403922866194</v>
+        <v>0.062592498306</v>
       </c>
       <c r="S17">
-        <v>0.01002339890112123</v>
+        <v>0.001239842126426981</v>
       </c>
       <c r="T17">
-        <v>0.01002339890112123</v>
+        <v>0.001239842126426981</v>
       </c>
     </row>
   </sheetData>
